--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D0D94-989D-0F4B-8488-4A476A884DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="13360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,23 @@
     <sheet name="Caustic" sheetId="9" r:id="rId8"/>
     <sheet name="Board" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="102">
   <si>
     <t>meta-process</t>
   </si>
@@ -281,12 +288,69 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bleached pulp</t>
+  </si>
+  <si>
+    <t>pulp ratio</t>
+  </si>
+  <si>
+    <t>washing water</t>
+  </si>
+  <si>
+    <t>washing water demand</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>NaOH demand</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>Talc</t>
+  </si>
+  <si>
+    <t>NaCl3</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>filter cake</t>
+  </si>
+  <si>
+    <t>filter cake ratio</t>
+  </si>
+  <si>
+    <t>Methanol demand</t>
+  </si>
+  <si>
+    <t>H2O2 demand</t>
+  </si>
+  <si>
+    <t>Talc demand</t>
+  </si>
+  <si>
+    <t>NaCl3 demand</t>
+  </si>
+  <si>
+    <t>H2SO4 demand</t>
+  </si>
+  <si>
+    <t>effluent ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +408,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,16 +685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +752,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -712,7 +776,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -724,7 +788,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -747,7 +811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -764,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -784,7 +848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -802,10 +866,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -828,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>27</v>
@@ -847,7 +911,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -856,7 +920,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -879,14 +943,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -910,7 +974,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -932,7 +996,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
         <v>38</v>
@@ -954,7 +1018,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
@@ -974,7 +1038,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>44</v>
@@ -994,7 +1058,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1020,7 +1084,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
@@ -1042,7 +1106,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="5" t="s">
         <v>47</v>
@@ -1066,7 +1130,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>47</v>
@@ -1090,7 +1154,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -1112,7 +1176,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -1134,7 +1198,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>50</v>
@@ -1178,27 +1242,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -1250,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -1290,7 +1354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -1310,7 +1374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -1330,7 +1394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -1353,7 +1417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1396,27 +1460,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -1468,7 +1532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -1488,7 +1552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -1508,7 +1572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -1528,7 +1592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -1548,7 +1612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -1568,7 +1632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1588,7 +1652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1608,7 +1672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -1628,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>82</v>
       </c>
@@ -1656,26 +1720,360 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,27 +2110,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,27 +2167,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,84 +2224,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1941,26 +2282,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D0D94-989D-0F4B-8488-4A476A884DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4450DF-AED0-CB4B-8CE3-B2B8BCFEF313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="13360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
     <sheet name="Wood" sheetId="2" r:id="rId2"/>
-    <sheet name="Pulp" sheetId="3" r:id="rId3"/>
+    <sheet name="Pulp" sheetId="10" r:id="rId3"/>
     <sheet name="Bleach" sheetId="5" r:id="rId4"/>
-    <sheet name="Dry" sheetId="4" r:id="rId5"/>
-    <sheet name="Multifuel" sheetId="7" r:id="rId6"/>
-    <sheet name="Liquor" sheetId="8" r:id="rId7"/>
-    <sheet name="Caustic" sheetId="9" r:id="rId8"/>
-    <sheet name="Board" sheetId="6" r:id="rId9"/>
+    <sheet name="Multifuel" sheetId="7" r:id="rId5"/>
+    <sheet name="Liquor" sheetId="8" r:id="rId6"/>
+    <sheet name="Caustic" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="121">
   <si>
     <t>meta-process</t>
   </si>
@@ -281,27 +279,12 @@
     <t>rejects ratio</t>
   </si>
   <si>
-    <t>condensate</t>
-  </si>
-  <si>
     <t>condensate demand</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>bleached pulp</t>
-  </si>
-  <si>
     <t>pulp ratio</t>
   </si>
   <si>
-    <t>washing water</t>
-  </si>
-  <si>
-    <t>washing water demand</t>
-  </si>
-  <si>
     <t>NaOH</t>
   </si>
   <si>
@@ -345,13 +328,85 @@
   </si>
   <si>
     <t>effluent ratio</t>
+  </si>
+  <si>
+    <t>market pulp (bleached)</t>
+  </si>
+  <si>
+    <t>vapor</t>
+  </si>
+  <si>
+    <t>vapor ratio</t>
+  </si>
+  <si>
+    <t>primary fuel</t>
+  </si>
+  <si>
+    <t>secondary fuel</t>
+  </si>
+  <si>
+    <t>primary steam energy</t>
+  </si>
+  <si>
+    <t>secondary steam energy</t>
+  </si>
+  <si>
+    <t>secondary fuel demand</t>
+  </si>
+  <si>
+    <t>CONSUMED condensate</t>
+  </si>
+  <si>
+    <t>CONSUMED white liquor</t>
+  </si>
+  <si>
+    <t>liquor solids ratio</t>
+  </si>
+  <si>
+    <t>crude tall oil</t>
+  </si>
+  <si>
+    <t>tall oil ratio</t>
+  </si>
+  <si>
+    <t>black liquor energy</t>
+  </si>
+  <si>
+    <t>multifuel energy</t>
+  </si>
+  <si>
+    <t>condensate ratio</t>
+  </si>
+  <si>
+    <t>smelt ratio</t>
+  </si>
+  <si>
+    <t>smelt</t>
+  </si>
+  <si>
+    <t>white liquor ratio</t>
+  </si>
+  <si>
+    <t>CaO demand</t>
+  </si>
+  <si>
+    <t>fuel energy</t>
+  </si>
+  <si>
+    <t>total fuel energy</t>
+  </si>
+  <si>
+    <t>biofuel cofire ratio</t>
+  </si>
+  <si>
+    <t>Calcination CO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +426,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +752,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B11" sqref="B11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1460,25 +1523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8571412B-366D-D54F-BFBC-E08F70E47656}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1620,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1660,16 +1712,16 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1707,11 +1759,6 @@
       </c>
       <c r="F11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J24" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1721,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1788,18 +1835,18 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1808,18 +1855,18 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1828,58 +1875,58 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1888,38 +1935,38 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1928,18 +1975,18 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1948,18 +1995,18 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1968,18 +2015,18 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1988,18 +2035,18 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2008,18 +2055,18 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2028,23 +2075,63 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2054,11 +2141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2105,17 +2192,132 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2162,17 +2364,171 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2219,118 +2575,235 @@
         <v>9</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4450DF-AED0-CB4B-8CE3-B2B8BCFEF313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B61FBA-54F9-E24A-87A4-38BFD364D0B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="120">
   <si>
     <t>meta-process</t>
   </si>
@@ -216,9 +216,6 @@
     <t>chip efficiency</t>
   </si>
   <si>
-    <t>bark</t>
-  </si>
-  <si>
     <t>losses</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>O2 demand</t>
   </si>
   <si>
-    <t>white liquor</t>
-  </si>
-  <si>
     <t>white liquor demand</t>
   </si>
   <si>
@@ -400,6 +394,9 @@
   </si>
   <si>
     <t>Calcination CO2</t>
+  </si>
+  <si>
+    <t>wet hot fuel</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1399,33 +1396,33 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1434,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1445,36 +1442,36 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -1527,7 +1524,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1572,16 +1569,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1592,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1601,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1612,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1621,58 +1618,58 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1681,18 +1678,18 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1701,18 +1698,18 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1721,12 +1718,12 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1820,13 +1817,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1835,18 +1832,18 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1855,18 +1852,18 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1875,18 +1872,18 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1895,58 +1892,58 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1955,18 +1952,18 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1975,58 +1972,58 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2035,18 +2032,18 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2055,18 +2052,18 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2075,18 +2072,18 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -2095,12 +2092,12 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -2194,13 +2191,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
@@ -2212,13 +2209,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
@@ -2227,18 +2224,18 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2249,22 +2246,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>32</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2381,18 +2378,18 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2401,7 +2398,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2412,7 +2409,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2423,13 +2420,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -2438,18 +2435,18 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2458,18 +2455,18 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2478,12 +2475,12 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2527,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2577,13 +2574,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2592,12 +2589,12 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2612,18 +2609,18 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2652,18 +2649,18 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2672,7 +2669,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2683,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2711,13 +2708,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2726,18 +2723,18 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2746,12 +2743,12 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2766,12 +2763,12 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>

--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B61FBA-54F9-E24A-87A4-38BFD364D0B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3045" windowWidth="25425" windowHeight="13365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Liquor" sheetId="8" r:id="rId6"/>
     <sheet name="Caustic" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -291,9 +290,6 @@
     <t>Talc</t>
   </si>
   <si>
-    <t>NaCl3</t>
-  </si>
-  <si>
     <t>H2SO4</t>
   </si>
   <si>
@@ -397,12 +393,15 @@
   </si>
   <si>
     <t>wet hot fuel</t>
+  </si>
+  <si>
+    <t>NaClO3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,7 +467,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,16 +744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -812,7 +811,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -836,7 +835,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -848,7 +847,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -871,7 +870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -888,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -908,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -926,10 +925,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -952,7 +951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>27</v>
@@ -971,7 +970,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -980,7 +979,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1003,14 +1002,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1034,7 +1033,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -1056,7 +1055,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
         <v>38</v>
@@ -1078,7 +1077,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
@@ -1098,7 +1097,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>44</v>
@@ -1118,7 +1117,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1144,7 +1143,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
@@ -1166,7 +1165,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="5" t="s">
         <v>47</v>
@@ -1190,7 +1189,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>47</v>
@@ -1214,7 +1213,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -1236,7 +1235,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -1258,7 +1257,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>50</v>
@@ -1302,27 +1301,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1414,7 +1413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1520,16 +1519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8571412B-366D-D54F-BFBC-E08F70E47656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1681,7 +1680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1721,7 +1720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1764,26 +1763,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1835,29 +1834,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1875,9 +1874,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1892,32 +1891,32 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1935,9 +1934,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1955,9 +1954,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1972,12 +1971,12 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1995,9 +1994,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2015,9 +2014,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2032,59 +2031,59 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
@@ -2092,12 +2091,12 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -2115,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -2138,26 +2137,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,15 +2188,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
@@ -2207,15 +2206,15 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
@@ -2224,18 +2223,18 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2244,15 +2243,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -2261,15 +2260,15 @@
         <v>65</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2287,7 +2286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2310,26 +2309,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2378,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -2389,19 +2388,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2418,7 +2417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -2435,10 +2434,10 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2455,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2475,10 +2474,10 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2521,26 +2520,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,29 +2571,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2609,18 +2608,18 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -2632,9 +2631,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2649,18 +2648,18 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2669,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2689,7 +2688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2706,9 +2705,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -2726,15 +2725,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2746,9 +2745,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2763,12 +2762,12 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2786,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>

--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CB6CF-EDCC-5B4E-8A3E-C700CCBA2EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3045" windowWidth="25425" windowHeight="13365" activeTab="3"/>
+    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -392,16 +387,16 @@
     <t>Calcination CO2</t>
   </si>
   <si>
-    <t>wet hot fuel</t>
-  </si>
-  <si>
     <t>NaClO3</t>
+  </si>
+  <si>
+    <t>hog fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +462,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,16 +739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -811,7 +806,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -835,7 +830,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -847,7 +842,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -870,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -907,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -925,10 +920,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -951,7 +946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>27</v>
@@ -970,7 +965,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -979,7 +974,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1002,14 +997,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1033,7 +1028,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -1055,7 +1050,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5" t="s">
         <v>38</v>
@@ -1077,7 +1072,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
@@ -1097,7 +1092,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>44</v>
@@ -1117,7 +1112,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1143,7 +1138,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
@@ -1165,7 +1160,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="5" t="s">
         <v>47</v>
@@ -1189,7 +1184,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>47</v>
@@ -1213,7 +1208,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -1235,7 +1230,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -1257,7 +1252,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>50</v>
@@ -1301,27 +1296,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -1373,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1393,7 +1388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1396,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1413,7 +1408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1519,16 +1514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -1580,7 +1575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -1620,7 +1615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1640,7 +1635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1660,7 +1655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1700,7 +1695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -1740,7 +1735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1763,26 +1758,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -1834,7 +1829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>94</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -1894,7 +1889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>94</v>
       </c>
@@ -1934,7 +1929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>94</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -1994,7 +1989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>94</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -2034,7 +2029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2054,7 +2049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>94</v>
       </c>
@@ -2074,7 +2069,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -2094,7 +2089,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>94</v>
       </c>
@@ -2114,7 +2109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -2137,26 +2132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>97</v>
       </c>
@@ -2206,7 +2201,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
@@ -2226,7 +2221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>98</v>
       </c>
@@ -2243,7 +2238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>99</v>
       </c>
@@ -2266,7 +2261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2309,26 +2304,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -2380,7 +2375,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -2400,7 +2395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -2477,7 +2472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -2497,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2520,26 +2515,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>111</v>
       </c>
@@ -2591,7 +2586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -2611,7 +2606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>103</v>
       </c>
@@ -2631,7 +2626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -2651,7 +2646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>115</v>
       </c>
@@ -2671,7 +2666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2705,7 +2700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>103</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -2745,7 +2740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -2765,7 +2760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>103</v>
       </c>
@@ -2785,7 +2780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>

--- a/data/paper/paper_calc.xlsx
+++ b/data/paper/paper_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CB6CF-EDCC-5B4E-8A3E-C700CCBA2EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B593DAE-ADB4-FC45-8EED-49B14304B215}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3040" windowWidth="25420" windowHeight="13360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="122">
   <si>
     <t>meta-process</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>hog fuel</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>bio CO2 is carbonated into the lime then released with calcination</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2518,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2748,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -2758,6 +2764,9 @@
       </c>
       <c r="G11" t="s">
         <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
